--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andy\Documents\GitHub\Metric-Software-Security-Assessment-GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47070FF2-F64B-4C7D-831B-251658C375F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5276C05-9D38-43BD-A749-90ABC4BC4C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1242DA85-62BF-48DA-B181-DB1BA7FE845B}"/>
   </bookViews>
@@ -1065,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7242228-6BDF-4C96-ACBB-73F55B4CB8FB}">
   <dimension ref="A1:CE134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="M133" sqref="M133"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
